--- a/Dharish/Survey Genie/CSV upload test/Bulk survey 2.xlsx
+++ b/Dharish/Survey Genie/CSV upload test/Bulk survey 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitysoft\Documents\GitHub\LCP-Project\Dharish\Survey Genie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitysoft\Documents\GitHub\LCP-Project\Dharish\Survey Genie\CSV upload test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection sqref="A1:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B4">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B5">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B7">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B9">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B10">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B12">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
@@ -1814,10 +1814,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B13">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B14">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B15">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>71</v>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B16">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B17">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
@@ -2056,10 +2056,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B18">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
         <v>83</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B19">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B20">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
         <v>94</v>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B21">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
         <v>95</v>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B22">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
         <v>100</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B23">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B24">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
         <v>112</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B25">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
         <v>113</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>118</v>
@@ -2495,5 +2495,6 @@
   </sheetData>
   <autoFilter ref="A1:N26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>